--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ltb-Tnfrsf1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ltb-Tnfrsf1a.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>47.30721766666667</v>
+        <v>1.104631</v>
       </c>
       <c r="H2">
-        <v>141.921653</v>
+        <v>3.313893</v>
       </c>
       <c r="I2">
-        <v>0.996628167810903</v>
+        <v>0.8734451962653081</v>
       </c>
       <c r="J2">
-        <v>0.9966281678109031</v>
+        <v>0.8734451962653083</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>73.913163</v>
+        <v>19.98610666666667</v>
       </c>
       <c r="N2">
-        <v>221.739489</v>
+        <v>59.95832</v>
       </c>
       <c r="O2">
-        <v>0.6096331558809398</v>
+        <v>0.2969043109767812</v>
       </c>
       <c r="P2">
-        <v>0.6096331558809398</v>
+        <v>0.2969043109767812</v>
       </c>
       <c r="Q2">
-        <v>3496.626090472813</v>
+        <v>22.07727299330667</v>
       </c>
       <c r="R2">
-        <v>31469.63481425531</v>
+        <v>198.69545693976</v>
       </c>
       <c r="S2">
-        <v>0.6075775751823996</v>
+        <v>0.2593296441731308</v>
       </c>
       <c r="T2">
-        <v>0.6075775751823997</v>
+        <v>0.2593296441731308</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>47.30721766666667</v>
+        <v>1.104631</v>
       </c>
       <c r="H3">
-        <v>141.921653</v>
+        <v>3.313893</v>
       </c>
       <c r="I3">
-        <v>0.996628167810903</v>
+        <v>0.8734451962653081</v>
       </c>
       <c r="J3">
-        <v>0.9966281678109031</v>
+        <v>0.8734451962653083</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>94.201697</v>
       </c>
       <c r="O3">
-        <v>0.2589907557307037</v>
+        <v>0.4664722083712238</v>
       </c>
       <c r="P3">
-        <v>0.2589907557307037</v>
+        <v>0.4664722083712239</v>
       </c>
       <c r="Q3">
-        <v>1485.47339484946</v>
+        <v>34.68603825293567</v>
       </c>
       <c r="R3">
-        <v>13369.26055364514</v>
+        <v>312.174344276421</v>
       </c>
       <c r="S3">
-        <v>0.2581174823638524</v>
+        <v>0.4074379095931153</v>
       </c>
       <c r="T3">
-        <v>0.2581174823638523</v>
+        <v>0.4074379095931154</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>47.30721766666667</v>
+        <v>1.104631</v>
       </c>
       <c r="H4">
-        <v>141.921653</v>
+        <v>3.313893</v>
       </c>
       <c r="I4">
-        <v>0.996628167810903</v>
+        <v>0.8734451962653081</v>
       </c>
       <c r="J4">
-        <v>0.9966281678109031</v>
+        <v>0.8734451962653083</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>47.784912</v>
       </c>
       <c r="O4">
-        <v>0.1313760883883565</v>
+        <v>0.236623480651995</v>
       </c>
       <c r="P4">
-        <v>0.1313760883883564</v>
+        <v>0.236623480651995</v>
       </c>
       <c r="Q4">
-        <v>753.5237443888373</v>
+        <v>17.594898375824</v>
       </c>
       <c r="R4">
-        <v>6781.713699499535</v>
+        <v>158.354085382416</v>
       </c>
       <c r="S4">
-        <v>0.130933110264651</v>
+        <v>0.2066776424990621</v>
       </c>
       <c r="T4">
-        <v>0.1309331102646509</v>
+        <v>0.2066776424990621</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.480155</v>
       </c>
       <c r="I5">
-        <v>0.003371832189096925</v>
+        <v>0.1265548037346918</v>
       </c>
       <c r="J5">
-        <v>0.003371832189096925</v>
+        <v>0.1265548037346918</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>73.913163</v>
+        <v>19.98610666666667</v>
       </c>
       <c r="N5">
-        <v>221.739489</v>
+        <v>59.95832</v>
       </c>
       <c r="O5">
-        <v>0.6096331558809398</v>
+        <v>0.2969043109767812</v>
       </c>
       <c r="P5">
-        <v>0.6096331558809398</v>
+        <v>0.2969043109767812</v>
       </c>
       <c r="Q5">
-        <v>11.829924926755</v>
+        <v>3.198809682177778</v>
       </c>
       <c r="R5">
-        <v>106.469324340795</v>
+        <v>28.7892871396</v>
       </c>
       <c r="S5">
-        <v>0.002055580698540096</v>
+        <v>0.03757466680365044</v>
       </c>
       <c r="T5">
-        <v>0.002055580698540096</v>
+        <v>0.03757466680365044</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.480155</v>
       </c>
       <c r="I6">
-        <v>0.003371832189096925</v>
+        <v>0.1265548037346918</v>
       </c>
       <c r="J6">
-        <v>0.003371832189096925</v>
+        <v>0.1265548037346918</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>94.201697</v>
       </c>
       <c r="O6">
-        <v>0.2589907557307037</v>
+        <v>0.4664722083712238</v>
       </c>
       <c r="P6">
-        <v>0.2589907557307037</v>
+        <v>0.4664722083712239</v>
       </c>
       <c r="Q6">
         <v>5.025712869226111</v>
@@ -818,10 +818,10 @@
         <v>45.231415823035</v>
       </c>
       <c r="S6">
-        <v>0.0008732733668513258</v>
+        <v>0.05903429877810848</v>
       </c>
       <c r="T6">
-        <v>0.0008732733668513256</v>
+        <v>0.05903429877810849</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.480155</v>
       </c>
       <c r="I7">
-        <v>0.003371832189096925</v>
+        <v>0.1265548037346918</v>
       </c>
       <c r="J7">
-        <v>0.003371832189096925</v>
+        <v>0.1265548037346918</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>47.784912</v>
       </c>
       <c r="O7">
-        <v>0.1313760883883565</v>
+        <v>0.236623480651995</v>
       </c>
       <c r="P7">
-        <v>0.1313760883883564</v>
+        <v>0.236623480651995</v>
       </c>
       <c r="Q7">
         <v>2.549351602373333</v>
@@ -880,10 +880,10 @@
         <v>22.94416442136</v>
       </c>
       <c r="S7">
-        <v>0.0004429781237055031</v>
+        <v>0.02994583815293286</v>
       </c>
       <c r="T7">
-        <v>0.000442978123705503</v>
+        <v>0.02994583815293287</v>
       </c>
     </row>
   </sheetData>
